--- a/data/transect_selected_dates.xlsx
+++ b/data/transect_selected_dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\blopti_dev\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A6DAD7-1E60-4AE9-A9F9-4D7F0E91AAB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1544A6E-C030-4F61-B6B2-5D0BFE4B980B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="6510" windowWidth="17505" windowHeight="9330" xr2:uid="{7806B37B-0B4B-4D42-B95A-5E03285C3A51}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
